--- a/data.xlsx
+++ b/data.xlsx
@@ -3,26 +3,32 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +39,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -43,10 +56,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -169,69 +197,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,54 +285,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -312,7 +341,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -321,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -330,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,10 +367,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -370,7 +399,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,13 +412,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -409,459 +437,2697 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Profile 1</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>1.672</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2.205</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>profile 10</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>1.096</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>1.415</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>profile 11</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>1.076</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.385</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>profile 12</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>1.044</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>1.34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>profile 13</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>1.064</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>1.365</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>profile 14</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>1.068</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>1.365</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>profile 15</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>1.104</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>1.41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>profile 16</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>0.964</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>1.235</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>profile 17</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>0.328</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>0.418</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>profile 18</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>0.188</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="3" t="n">
         <v>0.243</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>profile 5</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="3" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>profile 6</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>1.024</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="3" t="n">
         <v>1.308</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>profile 7</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>0.984</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="3" t="n">
         <v>1.26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>profile 8</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="3" t="n">
         <v>1.024</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>1.308</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>profile 9</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="3" t="n">
         <v>0.92</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="3" t="n">
         <v>1.178</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>profile2</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>1.128</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="3" t="n">
         <v>1.445</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>profile3</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>1.124</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="3" t="n">
         <v>1.43</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>23/01/2024</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>01:23:03</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>profile4</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
         <v>1.14</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="3" t="n">
         <v>1.455</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23:23:34</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.657</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23:23:40</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.328</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.715</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23:23:46</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23:31:40</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.657</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23:31:46</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.328</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23:31:52</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23:31:59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>profile 12</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.805</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23:32:06</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>profile 13</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23:32:14</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>profile 14</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.184</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.517</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23:32:21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>profile 15</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23:32:30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>profile 16</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.462</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23:32:38</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>profile 17</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23:32:47</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>profile 18</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23:32:55</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.783</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23:33:05</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.448</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.845</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23:33:14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23:33:24</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>profile 5</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.588</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23:33:34</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23:33:45</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1.328</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23:33:56</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.538</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23/01/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23:34:07</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.618</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>17:59:43</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17:59:49</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>17:59:55</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.177</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18:00:02</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>profile 12</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.015</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18:00:09</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>profile 13</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.722</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18:00:16</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>profile 14</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.732</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>18:00:24</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>profile 15</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.087</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18:00:32</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>profile 16</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.717</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18:00:40</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>profile 17</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.733</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18:00:49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>profile 18</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.043</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18:00:58</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.155</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18:01:07</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.033</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>18:01:16</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1.648</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.107</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18:01:26</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>profile 5</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.962</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>18:01:36</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1.612</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.057</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>18:01:46</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>18:01:57</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>24/01/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>18:02:08</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1.456</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01:09:43</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2.804</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01:09:49</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2.612</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01:09:56</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.692</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01:10:03</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>profile 12</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01:10:10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>profile 13</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.287</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01:10:17</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>profile 14</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.365</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>01:10:25</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>profile 15</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.537</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01:10:33</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>profile 16</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.355</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01:10:41</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>profile 17</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.262</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01:10:50</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>profile 18</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1.204</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>01:10:59</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.702</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01:11:08</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.482</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>01:11:17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.695</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01:11:27</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>profile 5</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.864</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01:11:38</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01:11:48</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.457</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01:11:59</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.482</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>26/01/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01:12:10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.338</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01:02:48</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01:02:54</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2.308</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.982</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01:03:01</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.027</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01:03:07</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>profile 12</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01:03:14</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>profile 13</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01:03:22</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>profile 14</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>01:03:29</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>profile 15</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.907</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01:03:37</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>profile 16</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.775</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>01:03:46</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>profile 17</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.647</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01:03:54</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>profile 18</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.915</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01:04:03</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01:04:12</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.852</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01:04:22</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2.392</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.065</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>01:04:31</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>profile 5</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.735</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01:04:42</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01:04:52</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2.108</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.702</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>01:05:03</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.852</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01:05:14</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.755</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>21:35:33</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2.472</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>21:35:44</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.967</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>21:35:54</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.032</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>27/01/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>21:36:05</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>09:49:24</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Profile 1</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.392</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>09:49:31</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>profile 10</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>09:49:37</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>profile 11</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2.676</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>09:49:44</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>profile 12</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.182</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>09:49:51</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>profile 13</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.987</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>09:49:58</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>profile 14</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.927</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>09:50:06</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>profile 15</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.227</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>09:50:14</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>profile 16</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.027</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>09:50:22</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>profile 17</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>09:50:31</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>profile 18</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.312</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>09:50:40</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>profile 2</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2.684</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.447</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>09:50:49</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>profile 3</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>09:50:59</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>profile 4</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.465</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>09:51:09</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>profile 5</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.982</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>09:51:19</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>profile 6</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2.644</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>09:51:29</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>profile 7</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.077</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>09:51:40</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>profile 8</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2.516</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.227</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>28/01/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>09:51:51</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>profile 9</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2.504</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>